--- a/allFundCompare.xlsx
+++ b/allFundCompare.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17835" windowHeight="6510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17835" windowHeight="6510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="category" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2339" uniqueCount="1575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2591" uniqueCount="1751">
   <si>
     <t>震荡市经历平均排名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6306,6 +6307,534 @@
   <si>
     <t>普通股票型基金</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金代码</t>
+  </si>
+  <si>
+    <t>基金名称</t>
+  </si>
+  <si>
+    <t>基金投资类型</t>
+  </si>
+  <si>
+    <t>成立日期</t>
+  </si>
+  <si>
+    <t>熊市经历几次</t>
+  </si>
+  <si>
+    <t>震荡市经历几次</t>
+  </si>
+  <si>
+    <t>牛市经历几次</t>
+  </si>
+  <si>
+    <t>熊市经历总天数</t>
+  </si>
+  <si>
+    <t>震荡市经历总天数</t>
+  </si>
+  <si>
+    <t>牛市经历总天数</t>
+  </si>
+  <si>
+    <t>熊市经历平均排名</t>
+  </si>
+  <si>
+    <t>震荡市经历平均排名</t>
+  </si>
+  <si>
+    <t>牛市平均排名</t>
+  </si>
+  <si>
+    <t>熊市经历平均排名(1:x&lt;33,     2: 33=&lt;x&lt;66,    3:66=&lt;x)</t>
+  </si>
+  <si>
+    <t>熊强震荡强牛强</t>
+  </si>
+  <si>
+    <t>000628.OF</t>
+  </si>
+  <si>
+    <t>大成高新技术产业</t>
+  </si>
+  <si>
+    <t>普通股票型基金</t>
+  </si>
+  <si>
+    <t>熊强震荡强牛中</t>
+  </si>
+  <si>
+    <t>001071.OF</t>
+  </si>
+  <si>
+    <t>华安媒体互联网</t>
+  </si>
+  <si>
+    <t>灵活配置型基金</t>
+  </si>
+  <si>
+    <t>001256.OF</t>
+  </si>
+  <si>
+    <t>泓德优选成长</t>
+  </si>
+  <si>
+    <t>偏股混合型基金</t>
+  </si>
+  <si>
+    <t>040025.OF</t>
+  </si>
+  <si>
+    <t>华安科技动力</t>
+  </si>
+  <si>
+    <t>040035.OF</t>
+  </si>
+  <si>
+    <t>华安逆向策略</t>
+  </si>
+  <si>
+    <t>160918.OF</t>
+  </si>
+  <si>
+    <t>大成中小盘</t>
+  </si>
+  <si>
+    <t>519668.OF</t>
+  </si>
+  <si>
+    <t>银河竞争优势成长</t>
+  </si>
+  <si>
+    <t>519670.OF</t>
+  </si>
+  <si>
+    <t>银河行业优选</t>
+  </si>
+  <si>
+    <t>519736.OF</t>
+  </si>
+  <si>
+    <t>交银新成长</t>
+  </si>
+  <si>
+    <t>660015.OF</t>
+  </si>
+  <si>
+    <t>农银汇理行业轮动</t>
+  </si>
+  <si>
+    <t>熊强震荡中牛强</t>
+  </si>
+  <si>
+    <t>000523.OF</t>
+  </si>
+  <si>
+    <t>国投瑞银医疗保健行业</t>
+  </si>
+  <si>
+    <t>000974.OF</t>
+  </si>
+  <si>
+    <t>安信消费医药主题</t>
+  </si>
+  <si>
+    <t>001044.OF</t>
+  </si>
+  <si>
+    <t>嘉实新消费</t>
+  </si>
+  <si>
+    <t>001882.OF</t>
+  </si>
+  <si>
+    <t>中欧价值发现E</t>
+  </si>
+  <si>
+    <t>070013.OF</t>
+  </si>
+  <si>
+    <t>嘉实研究精选A</t>
+  </si>
+  <si>
+    <t>519069.OF</t>
+  </si>
+  <si>
+    <t>汇添富价值精选A</t>
+  </si>
+  <si>
+    <t>熊中震荡强牛强</t>
+  </si>
+  <si>
+    <t>000083.OF</t>
+  </si>
+  <si>
+    <t>汇添富消费行业</t>
+  </si>
+  <si>
+    <t>000294.OF</t>
+  </si>
+  <si>
+    <t>华安生态优先</t>
+  </si>
+  <si>
+    <t>001186.OF</t>
+  </si>
+  <si>
+    <t>富国文体健康</t>
+  </si>
+  <si>
+    <t>090015.OF</t>
+  </si>
+  <si>
+    <t>大成内需增长A</t>
+  </si>
+  <si>
+    <t>166005.OF</t>
+  </si>
+  <si>
+    <t>中欧价值发现A</t>
+  </si>
+  <si>
+    <t>180031.OF</t>
+  </si>
+  <si>
+    <t>银华中小盘精选</t>
+  </si>
+  <si>
+    <t>熊中震荡中牛强</t>
+  </si>
+  <si>
+    <t>000577.OF</t>
+  </si>
+  <si>
+    <t>安信价值精选</t>
+  </si>
+  <si>
+    <t>001881.OF</t>
+  </si>
+  <si>
+    <t>中欧新趋势E</t>
+  </si>
+  <si>
+    <t>070022.OF</t>
+  </si>
+  <si>
+    <t>嘉实领先成长</t>
+  </si>
+  <si>
+    <t>160505.OF</t>
+  </si>
+  <si>
+    <t>博时主题行业</t>
+  </si>
+  <si>
+    <t>163807.OF</t>
+  </si>
+  <si>
+    <t>中银行业优选</t>
+  </si>
+  <si>
+    <t>370024.OF</t>
+  </si>
+  <si>
+    <t>上投摩根核心优选</t>
+  </si>
+  <si>
+    <t>398061.OF</t>
+  </si>
+  <si>
+    <t>中海消费主题精选</t>
+  </si>
+  <si>
+    <t>519091.OF</t>
+  </si>
+  <si>
+    <t>新华泛资源优势</t>
+  </si>
+  <si>
+    <t>519712.OF</t>
+  </si>
+  <si>
+    <t>交银阿尔法</t>
+  </si>
+  <si>
+    <t>540006.OF</t>
+  </si>
+  <si>
+    <t>汇丰晋信大盘A</t>
+  </si>
+  <si>
+    <t>熊中震荡强牛中</t>
+  </si>
+  <si>
+    <t>000418.OF</t>
+  </si>
+  <si>
+    <t>景顺长城成长之星</t>
+  </si>
+  <si>
+    <t>000547.OF</t>
+  </si>
+  <si>
+    <t>建信健康民生</t>
+  </si>
+  <si>
+    <t>000884.OF</t>
+  </si>
+  <si>
+    <t>民生加银优选</t>
+  </si>
+  <si>
+    <t>000916.OF</t>
+  </si>
+  <si>
+    <t>前海开源股息率100强</t>
+  </si>
+  <si>
+    <t>001188.OF</t>
+  </si>
+  <si>
+    <t>鹏华改革红利</t>
+  </si>
+  <si>
+    <t>001236.OF</t>
+  </si>
+  <si>
+    <t>博时丝路主题A</t>
+  </si>
+  <si>
+    <t>090018.OF</t>
+  </si>
+  <si>
+    <t>大成新锐产业</t>
+  </si>
+  <si>
+    <t>100026.OF</t>
+  </si>
+  <si>
+    <t>富国天合稳健优选</t>
+  </si>
+  <si>
+    <t>160133.OF</t>
+  </si>
+  <si>
+    <t>南方天元新产业</t>
+  </si>
+  <si>
+    <t>160512.OF</t>
+  </si>
+  <si>
+    <t>博时卓越品牌</t>
+  </si>
+  <si>
+    <t>161005.OF</t>
+  </si>
+  <si>
+    <t>富国天惠精选成长A</t>
+  </si>
+  <si>
+    <t>163412.OF</t>
+  </si>
+  <si>
+    <t>兴全轻资产</t>
+  </si>
+  <si>
+    <t>165512.OF</t>
+  </si>
+  <si>
+    <t>信诚新机遇</t>
+  </si>
+  <si>
+    <t>166011.OF</t>
+  </si>
+  <si>
+    <t>中欧盛世成长A</t>
+  </si>
+  <si>
+    <t>288002.OF</t>
+  </si>
+  <si>
+    <t>华夏收入</t>
+  </si>
+  <si>
+    <t>460005.OF</t>
+  </si>
+  <si>
+    <t>华泰柏瑞价值增长</t>
+  </si>
+  <si>
+    <t>470098.OF</t>
+  </si>
+  <si>
+    <t>汇添富逆向投资</t>
+  </si>
+  <si>
+    <t>519673.OF</t>
+  </si>
+  <si>
+    <t>银河康乐</t>
+  </si>
+  <si>
+    <t>519679.OF</t>
+  </si>
+  <si>
+    <t>银河主题策略</t>
+  </si>
+  <si>
+    <t>519704.OF</t>
+  </si>
+  <si>
+    <t>交银先进制造</t>
+  </si>
+  <si>
+    <t>519979.OF</t>
+  </si>
+  <si>
+    <t>长信内需成长</t>
+  </si>
+  <si>
+    <t>熊强震荡中牛中</t>
+  </si>
+  <si>
+    <t>166009.OF</t>
+  </si>
+  <si>
+    <t>中欧新动力A</t>
+  </si>
+  <si>
+    <t>202011.OF</t>
+  </si>
+  <si>
+    <t>南方优选价值A</t>
+  </si>
+  <si>
+    <t>233007.OF</t>
+  </si>
+  <si>
+    <t>大摩卓越成长</t>
+  </si>
+  <si>
+    <t>270041.OF</t>
+  </si>
+  <si>
+    <t>广发消费品精选</t>
+  </si>
+  <si>
+    <t>470009.OF</t>
+  </si>
+  <si>
+    <t>汇添富民营活力A</t>
+  </si>
+  <si>
+    <t>519674.OF</t>
+  </si>
+  <si>
+    <t>银河创新成长</t>
+  </si>
+  <si>
+    <t>020010.OF</t>
+  </si>
+  <si>
+    <t>国泰金牛创新成长</t>
+  </si>
+  <si>
+    <t>040016.OF</t>
+  </si>
+  <si>
+    <t>华安行业轮动</t>
+  </si>
+  <si>
+    <t>090007.OF</t>
+  </si>
+  <si>
+    <t>大成策略回报</t>
+  </si>
+  <si>
+    <t>100020.OF</t>
+  </si>
+  <si>
+    <t>富国天益价值</t>
+  </si>
+  <si>
+    <t>100022.OF</t>
+  </si>
+  <si>
+    <t>富国天瑞强势精选</t>
+  </si>
+  <si>
+    <t>110013.OF</t>
+  </si>
+  <si>
+    <t>易方达科翔</t>
+  </si>
+  <si>
+    <t>160607.OF</t>
+  </si>
+  <si>
+    <t>鹏华价值优势</t>
+  </si>
+  <si>
+    <t>165516.OF</t>
+  </si>
+  <si>
+    <t>信诚周期轮动</t>
+  </si>
+  <si>
+    <t>166002.OF</t>
+  </si>
+  <si>
+    <t>中欧新蓝筹A</t>
+  </si>
+  <si>
+    <t>270028.OF</t>
+  </si>
+  <si>
+    <t>广发制造业精选</t>
+  </si>
+  <si>
+    <t>270050.OF</t>
+  </si>
+  <si>
+    <t>广发新经济</t>
+  </si>
+  <si>
+    <t>377530.OF</t>
+  </si>
+  <si>
+    <t>上投摩根行业轮动A</t>
+  </si>
+  <si>
+    <t>450002.OF</t>
+  </si>
+  <si>
+    <t>国富弹性市值</t>
+  </si>
+  <si>
+    <t>470008.OF</t>
+  </si>
+  <si>
+    <t>汇添富策略回报</t>
+  </si>
+  <si>
+    <t>519008.OF</t>
+  </si>
+  <si>
+    <t>汇添富优势精选</t>
+  </si>
+  <si>
+    <t>519068.OF</t>
+  </si>
+  <si>
+    <t>汇添富成长焦点</t>
+  </si>
+  <si>
+    <t>540002.OF</t>
+  </si>
+  <si>
+    <t>汇丰晋信龙腾</t>
   </si>
 </sst>
 </file>
@@ -6398,6 +6927,81 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>485774</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>20</xdr:col>
+          <xdr:colOff>614361</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>147638</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Button 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="45720" tIns="41148" rIns="45720" bIns="41148" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="等线"/>
+                  <a:ea typeface="等线"/>
+                </a:rPr>
+                <a:t>categorize</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6662,12 +7266,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U762"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K4" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -47223,5 +47827,3960 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1025" r:id="rId4" name="Button 1">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!categorize">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>19</xdr:col>
+                    <xdr:colOff>485775</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>20</xdr:col>
+                    <xdr:colOff>614363</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>147638</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:P100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.9296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.9296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.796875" customWidth="1"/>
+    <col min="15" max="15" width="17.06640625" customWidth="1"/>
+    <col min="16" max="16" width="12.86328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D4" s="1">
+        <v>42038</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>166</v>
+      </c>
+      <c r="I4">
+        <v>103</v>
+      </c>
+      <c r="J4">
+        <v>568</v>
+      </c>
+      <c r="K4">
+        <v>28.641378730665718</v>
+      </c>
+      <c r="L4">
+        <v>5.2238805970149258</v>
+      </c>
+      <c r="M4">
+        <v>20.890184859154928</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D8" s="1">
+        <v>42139</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>166</v>
+      </c>
+      <c r="I8">
+        <v>103</v>
+      </c>
+      <c r="J8">
+        <v>502</v>
+      </c>
+      <c r="K8">
+        <v>24.880967167639632</v>
+      </c>
+      <c r="L8">
+        <v>2.3172905525846703</v>
+      </c>
+      <c r="M8">
+        <v>45.072045534058809</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D9" s="1">
+        <v>42145</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>166</v>
+      </c>
+      <c r="I9">
+        <v>103</v>
+      </c>
+      <c r="J9">
+        <v>498</v>
+      </c>
+      <c r="K9">
+        <v>11.175068296402685</v>
+      </c>
+      <c r="L9">
+        <v>2.9787234042553186</v>
+      </c>
+      <c r="M9">
+        <v>39.722127020115472</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D10" s="1">
+        <v>40897</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>408</v>
+      </c>
+      <c r="I10">
+        <v>280</v>
+      </c>
+      <c r="J10">
+        <v>905</v>
+      </c>
+      <c r="K10">
+        <v>29.897097081176664</v>
+      </c>
+      <c r="L10">
+        <v>3.4159791576204945</v>
+      </c>
+      <c r="M10">
+        <v>37.114192329729576</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D11" s="1">
+        <v>41137</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>326</v>
+      </c>
+      <c r="I11">
+        <v>280</v>
+      </c>
+      <c r="J11">
+        <v>828</v>
+      </c>
+      <c r="K11">
+        <v>21.083518854985218</v>
+      </c>
+      <c r="L11">
+        <v>15.351280937907076</v>
+      </c>
+      <c r="M11">
+        <v>43.521877391348006</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D12" s="1">
+        <v>41739</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>166</v>
+      </c>
+      <c r="I12">
+        <v>103</v>
+      </c>
+      <c r="J12">
+        <v>770</v>
+      </c>
+      <c r="K12">
+        <v>21.080158439983236</v>
+      </c>
+      <c r="L12">
+        <v>10.851063829787234</v>
+      </c>
+      <c r="M12">
+        <v>46.673998854973334</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D13" s="1">
+        <v>39594</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>911</v>
+      </c>
+      <c r="I13">
+        <v>384</v>
+      </c>
+      <c r="J13">
+        <v>1170</v>
+      </c>
+      <c r="K13">
+        <v>17.863235662606385</v>
+      </c>
+      <c r="L13">
+        <v>26.720815199871051</v>
+      </c>
+      <c r="M13">
+        <v>39.610744127444015</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D14" s="1">
+        <v>39927</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <v>802</v>
+      </c>
+      <c r="I14">
+        <v>384</v>
+      </c>
+      <c r="J14">
+        <v>1055</v>
+      </c>
+      <c r="K14">
+        <v>28.15530762889242</v>
+      </c>
+      <c r="L14">
+        <v>15.687754731970157</v>
+      </c>
+      <c r="M14">
+        <v>47.264067012068658</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D15" s="1">
+        <v>41768</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>166</v>
+      </c>
+      <c r="I15">
+        <v>103</v>
+      </c>
+      <c r="J15">
+        <v>751</v>
+      </c>
+      <c r="K15">
+        <v>26.72809945964962</v>
+      </c>
+      <c r="L15">
+        <v>11.48936170212766</v>
+      </c>
+      <c r="M15">
+        <v>33.841468080873014</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D16" s="1">
+        <v>41227</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>267</v>
+      </c>
+      <c r="I16">
+        <v>280</v>
+      </c>
+      <c r="J16">
+        <v>828</v>
+      </c>
+      <c r="K16">
+        <v>24.977146480299542</v>
+      </c>
+      <c r="L16">
+        <v>20.151758575770732</v>
+      </c>
+      <c r="M16">
+        <v>35.852070070883563</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D20" s="1">
+        <v>41695</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>166</v>
+      </c>
+      <c r="I20">
+        <v>120</v>
+      </c>
+      <c r="J20">
+        <v>784</v>
+      </c>
+      <c r="K20">
+        <v>29.909630519441603</v>
+      </c>
+      <c r="L20">
+        <v>42.278508743807087</v>
+      </c>
+      <c r="M20">
+        <v>29.047149407869078</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>2</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D21" s="1">
+        <v>42082</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>166</v>
+      </c>
+      <c r="I21">
+        <v>103</v>
+      </c>
+      <c r="J21">
+        <v>541</v>
+      </c>
+      <c r="K21">
+        <v>29.764682000345726</v>
+      </c>
+      <c r="L21">
+        <v>49.253731343283583</v>
+      </c>
+      <c r="M21">
+        <v>12.952659267962312</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>2</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D22" s="1">
+        <v>42086</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>166</v>
+      </c>
+      <c r="I22">
+        <v>103</v>
+      </c>
+      <c r="J22">
+        <v>539</v>
+      </c>
+      <c r="K22">
+        <v>14.951248986997086</v>
+      </c>
+      <c r="L22">
+        <v>43.283582089552233</v>
+      </c>
+      <c r="M22">
+        <v>15.74733244492057</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>2</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D23" s="1">
+        <v>42285</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>110</v>
+      </c>
+      <c r="I23">
+        <v>79</v>
+      </c>
+      <c r="J23">
+        <v>486</v>
+      </c>
+      <c r="K23">
+        <v>28.839590443686003</v>
+      </c>
+      <c r="L23">
+        <v>48.210526315789473</v>
+      </c>
+      <c r="M23">
+        <v>5.761316872427984</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>2</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D24" s="1">
+        <v>39595</v>
+      </c>
+      <c r="E24">
+        <v>7</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <v>910</v>
+      </c>
+      <c r="I24">
+        <v>384</v>
+      </c>
+      <c r="J24">
+        <v>1170</v>
+      </c>
+      <c r="K24">
+        <v>23.532718087283857</v>
+      </c>
+      <c r="L24">
+        <v>42.776895090724878</v>
+      </c>
+      <c r="M24">
+        <v>28.322419652403553</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>2</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D25" s="1">
+        <v>39836</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>6</v>
+      </c>
+      <c r="H25">
+        <v>802</v>
+      </c>
+      <c r="I25">
+        <v>384</v>
+      </c>
+      <c r="J25">
+        <v>1114</v>
+      </c>
+      <c r="K25">
+        <v>25.563660440049762</v>
+      </c>
+      <c r="L25">
+        <v>48.527325400663166</v>
+      </c>
+      <c r="M25">
+        <v>18.16230181209351</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>2</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D29" s="1">
+        <v>41397</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>202</v>
+      </c>
+      <c r="I29">
+        <v>280</v>
+      </c>
+      <c r="J29">
+        <v>784</v>
+      </c>
+      <c r="K29">
+        <v>47.653202024799249</v>
+      </c>
+      <c r="L29">
+        <v>29.952561875814158</v>
+      </c>
+      <c r="M29">
+        <v>2.3412168605760062</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D30" s="1">
+        <v>41606</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>166</v>
+      </c>
+      <c r="I30">
+        <v>177</v>
+      </c>
+      <c r="J30">
+        <v>784</v>
+      </c>
+      <c r="K30">
+        <v>39.887529804276291</v>
+      </c>
+      <c r="L30">
+        <v>24.047634917840675</v>
+      </c>
+      <c r="M30">
+        <v>24.541054739652871</v>
+      </c>
+      <c r="N30">
+        <v>2</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D31" s="1">
+        <v>42130</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>166</v>
+      </c>
+      <c r="I31">
+        <v>103</v>
+      </c>
+      <c r="J31">
+        <v>509</v>
+      </c>
+      <c r="K31">
+        <v>31.881877913126775</v>
+      </c>
+      <c r="L31">
+        <v>26.865671641791046</v>
+      </c>
+      <c r="M31">
+        <v>25.52796685824859</v>
+      </c>
+      <c r="N31">
+        <v>2</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D32" s="1">
+        <v>40708</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <v>537</v>
+      </c>
+      <c r="I32">
+        <v>280</v>
+      </c>
+      <c r="J32">
+        <v>905</v>
+      </c>
+      <c r="K32">
+        <v>49.636838092880964</v>
+      </c>
+      <c r="L32">
+        <v>15.525184541901867</v>
+      </c>
+      <c r="M32">
+        <v>28.554276121694372</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D33" s="1">
+        <v>40018</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>6</v>
+      </c>
+      <c r="H33">
+        <v>802</v>
+      </c>
+      <c r="I33">
+        <v>384</v>
+      </c>
+      <c r="J33">
+        <v>993</v>
+      </c>
+      <c r="K33">
+        <v>39.257181924104657</v>
+      </c>
+      <c r="L33">
+        <v>18.474608835313621</v>
+      </c>
+      <c r="M33">
+        <v>27.383264667333268</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D34" s="1">
+        <v>41080</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34">
+        <v>366</v>
+      </c>
+      <c r="I34">
+        <v>280</v>
+      </c>
+      <c r="J34">
+        <v>828</v>
+      </c>
+      <c r="K34">
+        <v>38.786946886707746</v>
+      </c>
+      <c r="L34">
+        <v>12.818497611810683</v>
+      </c>
+      <c r="M34">
+        <v>13.541398488171197</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D38" s="1">
+        <v>41750</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>166</v>
+      </c>
+      <c r="I38">
+        <v>103</v>
+      </c>
+      <c r="J38">
+        <v>763</v>
+      </c>
+      <c r="K38">
+        <v>38.549181588800906</v>
+      </c>
+      <c r="L38">
+        <v>34.328358208955223</v>
+      </c>
+      <c r="M38">
+        <v>25.835937762543271</v>
+      </c>
+      <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="O38">
+        <v>2</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D39" s="1">
+        <v>42285</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>110</v>
+      </c>
+      <c r="I39">
+        <v>79</v>
+      </c>
+      <c r="J39">
+        <v>486</v>
+      </c>
+      <c r="K39">
+        <v>32.935153583617748</v>
+      </c>
+      <c r="L39">
+        <v>33.05263157894737</v>
+      </c>
+      <c r="M39">
+        <v>23.045267489711936</v>
+      </c>
+      <c r="N39">
+        <v>2</v>
+      </c>
+      <c r="O39">
+        <v>2</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D40" s="1">
+        <v>40694</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>4</v>
+      </c>
+      <c r="H40">
+        <v>546</v>
+      </c>
+      <c r="I40">
+        <v>280</v>
+      </c>
+      <c r="J40">
+        <v>905</v>
+      </c>
+      <c r="K40">
+        <v>39.257650828452618</v>
+      </c>
+      <c r="L40">
+        <v>46.62396873643074</v>
+      </c>
+      <c r="M40">
+        <v>25.740472835471685</v>
+      </c>
+      <c r="N40">
+        <v>2</v>
+      </c>
+      <c r="O40">
+        <v>2</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D41" s="1">
+        <v>38358</v>
+      </c>
+      <c r="E41">
+        <v>7</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>7</v>
+      </c>
+      <c r="H41">
+        <v>1060</v>
+      </c>
+      <c r="I41">
+        <v>384</v>
+      </c>
+      <c r="J41">
+        <v>1599</v>
+      </c>
+      <c r="K41">
+        <v>38.775660064004548</v>
+      </c>
+      <c r="L41">
+        <v>33.003844006171136</v>
+      </c>
+      <c r="M41">
+        <v>25.401435754476815</v>
+      </c>
+      <c r="N41">
+        <v>2</v>
+      </c>
+      <c r="O41">
+        <v>2</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D42" s="1">
+        <v>39906</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>6</v>
+      </c>
+      <c r="H42">
+        <v>802</v>
+      </c>
+      <c r="I42">
+        <v>384</v>
+      </c>
+      <c r="J42">
+        <v>1069</v>
+      </c>
+      <c r="K42">
+        <v>40.757375072345873</v>
+      </c>
+      <c r="L42">
+        <v>49.909842954753714</v>
+      </c>
+      <c r="M42">
+        <v>28.612802027114519</v>
+      </c>
+      <c r="N42">
+        <v>2</v>
+      </c>
+      <c r="O42">
+        <v>2</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D43" s="1">
+        <v>41241</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="H43">
+        <v>257</v>
+      </c>
+      <c r="I43">
+        <v>280</v>
+      </c>
+      <c r="J43">
+        <v>828</v>
+      </c>
+      <c r="K43">
+        <v>46.480561499903025</v>
+      </c>
+      <c r="L43">
+        <v>49.344116369952232</v>
+      </c>
+      <c r="M43">
+        <v>28.13374793226123</v>
+      </c>
+      <c r="N43">
+        <v>2</v>
+      </c>
+      <c r="O43">
+        <v>2</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D44" s="1">
+        <v>40856</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>4</v>
+      </c>
+      <c r="H44">
+        <v>437</v>
+      </c>
+      <c r="I44">
+        <v>280</v>
+      </c>
+      <c r="J44">
+        <v>905</v>
+      </c>
+      <c r="K44">
+        <v>43.917348755821443</v>
+      </c>
+      <c r="L44">
+        <v>32.740990013026483</v>
+      </c>
+      <c r="M44">
+        <v>17.746593737596456</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44">
+        <v>2</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D45" s="1">
+        <v>40007</v>
+      </c>
+      <c r="E45">
+        <v>6</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>6</v>
+      </c>
+      <c r="H45">
+        <v>802</v>
+      </c>
+      <c r="I45">
+        <v>384</v>
+      </c>
+      <c r="J45">
+        <v>1002</v>
+      </c>
+      <c r="K45">
+        <v>40.559209542419211</v>
+      </c>
+      <c r="L45">
+        <v>40.437705331117336</v>
+      </c>
+      <c r="M45">
+        <v>26.937721715899531</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="O45">
+        <v>2</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D46" s="1">
+        <v>41124</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>3</v>
+      </c>
+      <c r="H46">
+        <v>335</v>
+      </c>
+      <c r="I46">
+        <v>280</v>
+      </c>
+      <c r="J46">
+        <v>828</v>
+      </c>
+      <c r="K46">
+        <v>39.874772512222265</v>
+      </c>
+      <c r="L46">
+        <v>48.429874077290492</v>
+      </c>
+      <c r="M46">
+        <v>16.086503598057888</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46">
+        <v>2</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D47" s="1">
+        <v>39988</v>
+      </c>
+      <c r="E47">
+        <v>6</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>6</v>
+      </c>
+      <c r="H47">
+        <v>802</v>
+      </c>
+      <c r="I47">
+        <v>384</v>
+      </c>
+      <c r="J47">
+        <v>1015</v>
+      </c>
+      <c r="K47">
+        <v>44.528700867055129</v>
+      </c>
+      <c r="L47">
+        <v>36.199582444918271</v>
+      </c>
+      <c r="M47">
+        <v>26.167413384451923</v>
+      </c>
+      <c r="N47">
+        <v>2</v>
+      </c>
+      <c r="O47">
+        <v>2</v>
+      </c>
+      <c r="P47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D51" s="1">
+        <v>41621</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>166</v>
+      </c>
+      <c r="I51">
+        <v>166</v>
+      </c>
+      <c r="J51">
+        <v>784</v>
+      </c>
+      <c r="K51">
+        <v>42.910922352038142</v>
+      </c>
+      <c r="L51">
+        <v>29.771174249235749</v>
+      </c>
+      <c r="M51">
+        <v>43.65953689167975</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D52" s="1">
+        <v>41719</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <v>166</v>
+      </c>
+      <c r="I52">
+        <v>103</v>
+      </c>
+      <c r="J52">
+        <v>783</v>
+      </c>
+      <c r="K52">
+        <v>38.733664678778339</v>
+      </c>
+      <c r="L52">
+        <v>22.340425531914892</v>
+      </c>
+      <c r="M52">
+        <v>46.42892229099126</v>
+      </c>
+      <c r="N52">
+        <v>2</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D53" s="1">
+        <v>41992</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>166</v>
+      </c>
+      <c r="I53">
+        <v>103</v>
+      </c>
+      <c r="J53">
+        <v>598</v>
+      </c>
+      <c r="K53">
+        <v>30.998682105016094</v>
+      </c>
+      <c r="L53">
+        <v>18.656716417910449</v>
+      </c>
+      <c r="M53">
+        <v>49.643160011052984</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="P53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D54" s="1">
+        <v>42017</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <v>166</v>
+      </c>
+      <c r="I54">
+        <v>103</v>
+      </c>
+      <c r="J54">
+        <v>583</v>
+      </c>
+      <c r="K54">
+        <v>47.005872641546837</v>
+      </c>
+      <c r="L54">
+        <v>23.134328358208954</v>
+      </c>
+      <c r="M54">
+        <v>43.841593692636394</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
+      <c r="P54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D55" s="1">
+        <v>42122</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <v>166</v>
+      </c>
+      <c r="I55">
+        <v>103</v>
+      </c>
+      <c r="J55">
+        <v>514</v>
+      </c>
+      <c r="K55">
+        <v>42.672876579372648</v>
+      </c>
+      <c r="L55">
+        <v>26.119402985074625</v>
+      </c>
+      <c r="M55">
+        <v>49.893648862934405</v>
+      </c>
+      <c r="N55">
+        <v>2</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="P55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D56" s="1">
+        <v>42146</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <v>166</v>
+      </c>
+      <c r="I56">
+        <v>103</v>
+      </c>
+      <c r="J56">
+        <v>497</v>
+      </c>
+      <c r="K56">
+        <v>45.78130872839786</v>
+      </c>
+      <c r="L56">
+        <v>2.9850746268656718</v>
+      </c>
+      <c r="M56">
+        <v>35.153606404642026</v>
+      </c>
+      <c r="N56">
+        <v>2</v>
+      </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
+      <c r="P56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D57" s="1">
+        <v>40988</v>
+      </c>
+      <c r="E57">
+        <v>4</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>4</v>
+      </c>
+      <c r="H57">
+        <v>398</v>
+      </c>
+      <c r="I57">
+        <v>280</v>
+      </c>
+      <c r="J57">
+        <v>857</v>
+      </c>
+      <c r="K57">
+        <v>32.984910901852118</v>
+      </c>
+      <c r="L57">
+        <v>29.809921841076857</v>
+      </c>
+      <c r="M57">
+        <v>49.513171302154582</v>
+      </c>
+      <c r="N57">
+        <v>2</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D58" s="1">
+        <v>39036</v>
+      </c>
+      <c r="E58">
+        <v>7</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+      <c r="G58">
+        <v>7</v>
+      </c>
+      <c r="H58">
+        <v>1060</v>
+      </c>
+      <c r="I58">
+        <v>384</v>
+      </c>
+      <c r="J58">
+        <v>1391</v>
+      </c>
+      <c r="K58">
+        <v>43.760145817750818</v>
+      </c>
+      <c r="L58">
+        <v>27.787242677535232</v>
+      </c>
+      <c r="M58">
+        <v>31.897656646849981</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+      <c r="P58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D59" s="1">
+        <v>41823</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="H59">
+        <v>166</v>
+      </c>
+      <c r="I59">
+        <v>103</v>
+      </c>
+      <c r="J59">
+        <v>713</v>
+      </c>
+      <c r="K59">
+        <v>30.053873516971663</v>
+      </c>
+      <c r="L59">
+        <v>11.19402985074627</v>
+      </c>
+      <c r="M59">
+        <v>32.522386449455176</v>
+      </c>
+      <c r="N59">
+        <v>2</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D60" s="1">
+        <v>40655</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>4</v>
+      </c>
+      <c r="H60">
+        <v>572</v>
+      </c>
+      <c r="I60">
+        <v>280</v>
+      </c>
+      <c r="J60">
+        <v>905</v>
+      </c>
+      <c r="K60">
+        <v>42.273430315510851</v>
+      </c>
+      <c r="L60">
+        <v>18.838363004776379</v>
+      </c>
+      <c r="M60">
+        <v>45.926158751455581</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="P60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D61" s="1">
+        <v>38672</v>
+      </c>
+      <c r="E61">
+        <v>7</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <v>7</v>
+      </c>
+      <c r="H61">
+        <v>1060</v>
+      </c>
+      <c r="I61">
+        <v>384</v>
+      </c>
+      <c r="J61">
+        <v>1599</v>
+      </c>
+      <c r="K61">
+        <v>37.692461927686438</v>
+      </c>
+      <c r="L61">
+        <v>21.85232597632864</v>
+      </c>
+      <c r="M61">
+        <v>38.216592945250191</v>
+      </c>
+      <c r="N61">
+        <v>2</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D62" s="1">
+        <v>41004</v>
+      </c>
+      <c r="E62">
+        <v>4</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62">
+        <v>4</v>
+      </c>
+      <c r="H62">
+        <v>398</v>
+      </c>
+      <c r="I62">
+        <v>280</v>
+      </c>
+      <c r="J62">
+        <v>848</v>
+      </c>
+      <c r="K62">
+        <v>34.759877439013785</v>
+      </c>
+      <c r="L62">
+        <v>1.7966782457663915</v>
+      </c>
+      <c r="M62">
+        <v>43.263711395416607</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D63" s="1">
+        <v>40756</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>4</v>
+      </c>
+      <c r="H63">
+        <v>503</v>
+      </c>
+      <c r="I63">
+        <v>280</v>
+      </c>
+      <c r="J63">
+        <v>905</v>
+      </c>
+      <c r="K63">
+        <v>37.326323547025837</v>
+      </c>
+      <c r="L63">
+        <v>28.162613981762917</v>
+      </c>
+      <c r="M63">
+        <v>30.320186997346422</v>
+      </c>
+      <c r="N63">
+        <v>2</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="P63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D64" s="1">
+        <v>40997</v>
+      </c>
+      <c r="E64">
+        <v>4</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>4</v>
+      </c>
+      <c r="H64">
+        <v>398</v>
+      </c>
+      <c r="I64">
+        <v>280</v>
+      </c>
+      <c r="J64">
+        <v>850</v>
+      </c>
+      <c r="K64">
+        <v>46.461449665793324</v>
+      </c>
+      <c r="L64">
+        <v>7.3258792878853667</v>
+      </c>
+      <c r="M64">
+        <v>37.470872884309735</v>
+      </c>
+      <c r="N64">
+        <v>2</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="P64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D65" s="1">
+        <v>38673</v>
+      </c>
+      <c r="E65">
+        <v>7</v>
+      </c>
+      <c r="F65">
+        <v>3</v>
+      </c>
+      <c r="G65">
+        <v>7</v>
+      </c>
+      <c r="H65">
+        <v>1060</v>
+      </c>
+      <c r="I65">
+        <v>384</v>
+      </c>
+      <c r="J65">
+        <v>1599</v>
+      </c>
+      <c r="K65">
+        <v>46.4514106441423</v>
+      </c>
+      <c r="L65">
+        <v>27.41739920097633</v>
+      </c>
+      <c r="M65">
+        <v>36.454496279018826</v>
+      </c>
+      <c r="N65">
+        <v>2</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+      <c r="P65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D66" s="1">
+        <v>39645</v>
+      </c>
+      <c r="E66">
+        <v>7</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <v>6</v>
+      </c>
+      <c r="H66">
+        <v>875</v>
+      </c>
+      <c r="I66">
+        <v>384</v>
+      </c>
+      <c r="J66">
+        <v>1170</v>
+      </c>
+      <c r="K66">
+        <v>47.439094080535867</v>
+      </c>
+      <c r="L66">
+        <v>28.178673609192231</v>
+      </c>
+      <c r="M66">
+        <v>47.719765348947966</v>
+      </c>
+      <c r="N66">
+        <v>2</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D67" s="1">
+        <v>40977</v>
+      </c>
+      <c r="E67">
+        <v>4</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67">
+        <v>4</v>
+      </c>
+      <c r="H67">
+        <v>398</v>
+      </c>
+      <c r="I67">
+        <v>280</v>
+      </c>
+      <c r="J67">
+        <v>864</v>
+      </c>
+      <c r="K67">
+        <v>41.505758834925018</v>
+      </c>
+      <c r="L67">
+        <v>20.187907077724709</v>
+      </c>
+      <c r="M67">
+        <v>31.803449708354556</v>
+      </c>
+      <c r="N67">
+        <v>2</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="P67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D68" s="1">
+        <v>41961</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="H68">
+        <v>166</v>
+      </c>
+      <c r="I68">
+        <v>103</v>
+      </c>
+      <c r="J68">
+        <v>621</v>
+      </c>
+      <c r="K68">
+        <v>42.097149952977638</v>
+      </c>
+      <c r="L68">
+        <v>24.626865671641792</v>
+      </c>
+      <c r="M68">
+        <v>45.130025254248849</v>
+      </c>
+      <c r="N68">
+        <v>2</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="P68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D69" s="1">
+        <v>41173</v>
+      </c>
+      <c r="E69">
+        <v>4</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>3</v>
+      </c>
+      <c r="H69">
+        <v>300</v>
+      </c>
+      <c r="I69">
+        <v>280</v>
+      </c>
+      <c r="J69">
+        <v>828</v>
+      </c>
+      <c r="K69">
+        <v>48.516818271754104</v>
+      </c>
+      <c r="L69">
+        <v>1.3201259227095095</v>
+      </c>
+      <c r="M69">
+        <v>49.404609275348527</v>
+      </c>
+      <c r="N69">
+        <v>2</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="P69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D70" s="1">
+        <v>40716</v>
+      </c>
+      <c r="E70">
+        <v>5</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70">
+        <v>4</v>
+      </c>
+      <c r="H70">
+        <v>531</v>
+      </c>
+      <c r="I70">
+        <v>280</v>
+      </c>
+      <c r="J70">
+        <v>905</v>
+      </c>
+      <c r="K70">
+        <v>39.974368143256989</v>
+      </c>
+      <c r="L70">
+        <v>23.840968302214502</v>
+      </c>
+      <c r="M70">
+        <v>33.29107373038606</v>
+      </c>
+      <c r="N70">
+        <v>2</v>
+      </c>
+      <c r="O70">
+        <v>1</v>
+      </c>
+      <c r="P70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D71" s="1">
+        <v>40836</v>
+      </c>
+      <c r="E71">
+        <v>5</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <v>4</v>
+      </c>
+      <c r="H71">
+        <v>451</v>
+      </c>
+      <c r="I71">
+        <v>280</v>
+      </c>
+      <c r="J71">
+        <v>905</v>
+      </c>
+      <c r="K71">
+        <v>32.301541014485032</v>
+      </c>
+      <c r="L71">
+        <v>6.2058184976118111</v>
+      </c>
+      <c r="M71">
+        <v>41.376353706778843</v>
+      </c>
+      <c r="N71">
+        <v>2</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D75" s="1">
+        <v>40584</v>
+      </c>
+      <c r="E75">
+        <v>5</v>
+      </c>
+      <c r="F75">
+        <v>3</v>
+      </c>
+      <c r="G75">
+        <v>4</v>
+      </c>
+      <c r="H75">
+        <v>579</v>
+      </c>
+      <c r="I75">
+        <v>322</v>
+      </c>
+      <c r="J75">
+        <v>905</v>
+      </c>
+      <c r="K75">
+        <v>26.832972967809138</v>
+      </c>
+      <c r="L75">
+        <v>31.46414958699776</v>
+      </c>
+      <c r="M75">
+        <v>33.682982003830915</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>2</v>
+      </c>
+      <c r="P75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D76" s="1">
+        <v>39617</v>
+      </c>
+      <c r="E76">
+        <v>7</v>
+      </c>
+      <c r="F76">
+        <v>3</v>
+      </c>
+      <c r="G76">
+        <v>6</v>
+      </c>
+      <c r="H76">
+        <v>895</v>
+      </c>
+      <c r="I76">
+        <v>384</v>
+      </c>
+      <c r="J76">
+        <v>1170</v>
+      </c>
+      <c r="K76">
+        <v>27.513843403520948</v>
+      </c>
+      <c r="L76">
+        <v>41.321979771115409</v>
+      </c>
+      <c r="M76">
+        <v>44.061821045948392</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>2</v>
+      </c>
+      <c r="P76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D77" s="1">
+        <v>40316</v>
+      </c>
+      <c r="E77">
+        <v>6</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
+      </c>
+      <c r="G77">
+        <v>5</v>
+      </c>
+      <c r="H77">
+        <v>610</v>
+      </c>
+      <c r="I77">
+        <v>384</v>
+      </c>
+      <c r="J77">
+        <v>987</v>
+      </c>
+      <c r="K77">
+        <v>27.440637622130506</v>
+      </c>
+      <c r="L77">
+        <v>35.300360654416508</v>
+      </c>
+      <c r="M77">
+        <v>47.727529556193076</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>2</v>
+      </c>
+      <c r="P77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D78" s="1">
+        <v>41072</v>
+      </c>
+      <c r="E78">
+        <v>4</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+      <c r="G78">
+        <v>3</v>
+      </c>
+      <c r="H78">
+        <v>372</v>
+      </c>
+      <c r="I78">
+        <v>280</v>
+      </c>
+      <c r="J78">
+        <v>828</v>
+      </c>
+      <c r="K78">
+        <v>22.477857489013839</v>
+      </c>
+      <c r="L78">
+        <v>38.156969170646981</v>
+      </c>
+      <c r="M78">
+        <v>38.099809387197986</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>2</v>
+      </c>
+      <c r="P78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D79" s="1">
+        <v>40303</v>
+      </c>
+      <c r="E79">
+        <v>6</v>
+      </c>
+      <c r="F79">
+        <v>3</v>
+      </c>
+      <c r="G79">
+        <v>5</v>
+      </c>
+      <c r="H79">
+        <v>619</v>
+      </c>
+      <c r="I79">
+        <v>384</v>
+      </c>
+      <c r="J79">
+        <v>987</v>
+      </c>
+      <c r="K79">
+        <v>26.845833772742228</v>
+      </c>
+      <c r="L79">
+        <v>34.146108213594914</v>
+      </c>
+      <c r="M79">
+        <v>33.41044794441013</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>2</v>
+      </c>
+      <c r="P79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D80" s="1">
+        <v>40541</v>
+      </c>
+      <c r="E80">
+        <v>5</v>
+      </c>
+      <c r="F80">
+        <v>3</v>
+      </c>
+      <c r="G80">
+        <v>4</v>
+      </c>
+      <c r="H80">
+        <v>579</v>
+      </c>
+      <c r="I80">
+        <v>347</v>
+      </c>
+      <c r="J80">
+        <v>905</v>
+      </c>
+      <c r="K80">
+        <v>21.288399797945676</v>
+      </c>
+      <c r="L80">
+        <v>31.795445999873007</v>
+      </c>
+      <c r="M80">
+        <v>38.430063100173946</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>2</v>
+      </c>
+      <c r="P80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D84" s="1">
+        <v>39220</v>
+      </c>
+      <c r="E84">
+        <v>7</v>
+      </c>
+      <c r="F84">
+        <v>3</v>
+      </c>
+      <c r="G84">
+        <v>7</v>
+      </c>
+      <c r="H84">
+        <v>1060</v>
+      </c>
+      <c r="I84">
+        <v>384</v>
+      </c>
+      <c r="J84">
+        <v>1272</v>
+      </c>
+      <c r="K84">
+        <v>41.480728019386106</v>
+      </c>
+      <c r="L84">
+        <v>42.68021927097724</v>
+      </c>
+      <c r="M84">
+        <v>45.160704429838624</v>
+      </c>
+      <c r="N84">
+        <v>2</v>
+      </c>
+      <c r="O84">
+        <v>2</v>
+      </c>
+      <c r="P84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D85" s="1">
+        <v>40309</v>
+      </c>
+      <c r="E85">
+        <v>6</v>
+      </c>
+      <c r="F85">
+        <v>3</v>
+      </c>
+      <c r="G85">
+        <v>5</v>
+      </c>
+      <c r="H85">
+        <v>615</v>
+      </c>
+      <c r="I85">
+        <v>384</v>
+      </c>
+      <c r="J85">
+        <v>987</v>
+      </c>
+      <c r="K85">
+        <v>43.058867602628645</v>
+      </c>
+      <c r="L85">
+        <v>33.593195921985817</v>
+      </c>
+      <c r="M85">
+        <v>47.896368308163304</v>
+      </c>
+      <c r="N85">
+        <v>2</v>
+      </c>
+      <c r="O85">
+        <v>2</v>
+      </c>
+      <c r="P85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D86" s="1">
+        <v>39778</v>
+      </c>
+      <c r="E86">
+        <v>6</v>
+      </c>
+      <c r="F86">
+        <v>3</v>
+      </c>
+      <c r="G86">
+        <v>6</v>
+      </c>
+      <c r="H86">
+        <v>802</v>
+      </c>
+      <c r="I86">
+        <v>384</v>
+      </c>
+      <c r="J86">
+        <v>1154</v>
+      </c>
+      <c r="K86">
+        <v>46.310903617205561</v>
+      </c>
+      <c r="L86">
+        <v>30.326402321083169</v>
+      </c>
+      <c r="M86">
+        <v>30.293852303391947</v>
+      </c>
+      <c r="N86">
+        <v>2</v>
+      </c>
+      <c r="O86">
+        <v>2</v>
+      </c>
+      <c r="P86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D87" s="1">
+        <v>38153</v>
+      </c>
+      <c r="E87">
+        <v>7</v>
+      </c>
+      <c r="F87">
+        <v>3</v>
+      </c>
+      <c r="G87">
+        <v>7</v>
+      </c>
+      <c r="H87">
+        <v>1060</v>
+      </c>
+      <c r="I87">
+        <v>384</v>
+      </c>
+      <c r="J87">
+        <v>1599</v>
+      </c>
+      <c r="K87">
+        <v>33.940478792707722</v>
+      </c>
+      <c r="L87">
+        <v>45.396122605231653</v>
+      </c>
+      <c r="M87">
+        <v>35.083862279426107</v>
+      </c>
+      <c r="N87">
+        <v>2</v>
+      </c>
+      <c r="O87">
+        <v>2</v>
+      </c>
+      <c r="P87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D88" s="1">
+        <v>38447</v>
+      </c>
+      <c r="E88">
+        <v>7</v>
+      </c>
+      <c r="F88">
+        <v>3</v>
+      </c>
+      <c r="G88">
+        <v>7</v>
+      </c>
+      <c r="H88">
+        <v>1060</v>
+      </c>
+      <c r="I88">
+        <v>384</v>
+      </c>
+      <c r="J88">
+        <v>1599</v>
+      </c>
+      <c r="K88">
+        <v>33.067185451587541</v>
+      </c>
+      <c r="L88">
+        <v>44.138926786865618</v>
+      </c>
+      <c r="M88">
+        <v>44.183014027497364</v>
+      </c>
+      <c r="N88">
+        <v>2</v>
+      </c>
+      <c r="O88">
+        <v>2</v>
+      </c>
+      <c r="P88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D89" s="1">
+        <v>39765</v>
+      </c>
+      <c r="E89">
+        <v>6</v>
+      </c>
+      <c r="F89">
+        <v>3</v>
+      </c>
+      <c r="G89">
+        <v>6</v>
+      </c>
+      <c r="H89">
+        <v>802</v>
+      </c>
+      <c r="I89">
+        <v>384</v>
+      </c>
+      <c r="J89">
+        <v>1163</v>
+      </c>
+      <c r="K89">
+        <v>41.725581504667453</v>
+      </c>
+      <c r="L89">
+        <v>45.007238993276225</v>
+      </c>
+      <c r="M89">
+        <v>31.862650976520786</v>
+      </c>
+      <c r="N89">
+        <v>2</v>
+      </c>
+      <c r="O89">
+        <v>2</v>
+      </c>
+      <c r="P89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D90" s="1">
+        <v>38916</v>
+      </c>
+      <c r="E90">
+        <v>7</v>
+      </c>
+      <c r="F90">
+        <v>3</v>
+      </c>
+      <c r="G90">
+        <v>7</v>
+      </c>
+      <c r="H90">
+        <v>1060</v>
+      </c>
+      <c r="I90">
+        <v>384</v>
+      </c>
+      <c r="J90">
+        <v>1472</v>
+      </c>
+      <c r="K90">
+        <v>46.518564845601389</v>
+      </c>
+      <c r="L90">
+        <v>41.914893617021278</v>
+      </c>
+      <c r="M90">
+        <v>36.736945268407752</v>
+      </c>
+      <c r="N90">
+        <v>2</v>
+      </c>
+      <c r="O90">
+        <v>2</v>
+      </c>
+      <c r="P90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D91" s="1">
+        <v>41036</v>
+      </c>
+      <c r="E91">
+        <v>4</v>
+      </c>
+      <c r="F91">
+        <v>2</v>
+      </c>
+      <c r="G91">
+        <v>3</v>
+      </c>
+      <c r="H91">
+        <v>398</v>
+      </c>
+      <c r="I91">
+        <v>280</v>
+      </c>
+      <c r="J91">
+        <v>828</v>
+      </c>
+      <c r="K91">
+        <v>42.614184366236152</v>
+      </c>
+      <c r="L91">
+        <v>49.175531914893611</v>
+      </c>
+      <c r="M91">
+        <v>36.347910927575064</v>
+      </c>
+      <c r="N91">
+        <v>2</v>
+      </c>
+      <c r="O91">
+        <v>2</v>
+      </c>
+      <c r="P91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D92" s="1">
+        <v>39654</v>
+      </c>
+      <c r="E92">
+        <v>7</v>
+      </c>
+      <c r="F92">
+        <v>3</v>
+      </c>
+      <c r="G92">
+        <v>6</v>
+      </c>
+      <c r="H92">
+        <v>868</v>
+      </c>
+      <c r="I92">
+        <v>384</v>
+      </c>
+      <c r="J92">
+        <v>1170</v>
+      </c>
+      <c r="K92">
+        <v>43.292463842247372</v>
+      </c>
+      <c r="L92">
+        <v>33.228178454511173</v>
+      </c>
+      <c r="M92">
+        <v>33.845473647440699</v>
+      </c>
+      <c r="N92">
+        <v>2</v>
+      </c>
+      <c r="O92">
+        <v>2</v>
+      </c>
+      <c r="P92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D93" s="1">
+        <v>40806</v>
+      </c>
+      <c r="E93">
+        <v>5</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93">
+        <v>4</v>
+      </c>
+      <c r="H93">
+        <v>468</v>
+      </c>
+      <c r="I93">
+        <v>280</v>
+      </c>
+      <c r="J93">
+        <v>905</v>
+      </c>
+      <c r="K93">
+        <v>41.978218774227962</v>
+      </c>
+      <c r="L93">
+        <v>30.076422058184978</v>
+      </c>
+      <c r="M93">
+        <v>47.302205438253026</v>
+      </c>
+      <c r="N93">
+        <v>2</v>
+      </c>
+      <c r="O93">
+        <v>2</v>
+      </c>
+      <c r="P93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D94" s="1">
+        <v>41311</v>
+      </c>
+      <c r="E94">
+        <v>3</v>
+      </c>
+      <c r="F94">
+        <v>2</v>
+      </c>
+      <c r="G94">
+        <v>2</v>
+      </c>
+      <c r="H94">
+        <v>254</v>
+      </c>
+      <c r="I94">
+        <v>280</v>
+      </c>
+      <c r="J94">
+        <v>784</v>
+      </c>
+      <c r="K94">
+        <v>42.711423489423325</v>
+      </c>
+      <c r="L94">
+        <v>36.133630047763788</v>
+      </c>
+      <c r="M94">
+        <v>37.820665649437345</v>
+      </c>
+      <c r="N94">
+        <v>2</v>
+      </c>
+      <c r="O94">
+        <v>2</v>
+      </c>
+      <c r="P94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D95" s="1">
+        <v>40206</v>
+      </c>
+      <c r="E95">
+        <v>6</v>
+      </c>
+      <c r="F95">
+        <v>3</v>
+      </c>
+      <c r="G95">
+        <v>5</v>
+      </c>
+      <c r="H95">
+        <v>681</v>
+      </c>
+      <c r="I95">
+        <v>384</v>
+      </c>
+      <c r="J95">
+        <v>987</v>
+      </c>
+      <c r="K95">
+        <v>45.962098607774955</v>
+      </c>
+      <c r="L95">
+        <v>45.846739142949247</v>
+      </c>
+      <c r="M95">
+        <v>38.893392572859703</v>
+      </c>
+      <c r="N95">
+        <v>2</v>
+      </c>
+      <c r="O95">
+        <v>2</v>
+      </c>
+      <c r="P95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D96" s="1">
+        <v>38882</v>
+      </c>
+      <c r="E96">
+        <v>7</v>
+      </c>
+      <c r="F96">
+        <v>3</v>
+      </c>
+      <c r="G96">
+        <v>7</v>
+      </c>
+      <c r="H96">
+        <v>1060</v>
+      </c>
+      <c r="I96">
+        <v>384</v>
+      </c>
+      <c r="J96">
+        <v>1496</v>
+      </c>
+      <c r="K96">
+        <v>31.119670370090748</v>
+      </c>
+      <c r="L96">
+        <v>47.285370325596382</v>
+      </c>
+      <c r="M96">
+        <v>37.387244124845523</v>
+      </c>
+      <c r="N96">
+        <v>2</v>
+      </c>
+      <c r="O96">
+        <v>2</v>
+      </c>
+      <c r="P96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D97" s="1">
+        <v>40169</v>
+      </c>
+      <c r="E97">
+        <v>6</v>
+      </c>
+      <c r="F97">
+        <v>3</v>
+      </c>
+      <c r="G97">
+        <v>5</v>
+      </c>
+      <c r="H97">
+        <v>707</v>
+      </c>
+      <c r="I97">
+        <v>384</v>
+      </c>
+      <c r="J97">
+        <v>987</v>
+      </c>
+      <c r="K97">
+        <v>38.161566758505003</v>
+      </c>
+      <c r="L97">
+        <v>47.425019572625956</v>
+      </c>
+      <c r="M97">
+        <v>33.95054101586242</v>
+      </c>
+      <c r="N97">
+        <v>2</v>
+      </c>
+      <c r="O97">
+        <v>2</v>
+      </c>
+      <c r="P97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D98" s="1">
+        <v>38589</v>
+      </c>
+      <c r="E98">
+        <v>7</v>
+      </c>
+      <c r="F98">
+        <v>3</v>
+      </c>
+      <c r="G98">
+        <v>7</v>
+      </c>
+      <c r="H98">
+        <v>1060</v>
+      </c>
+      <c r="I98">
+        <v>384</v>
+      </c>
+      <c r="J98">
+        <v>1599</v>
+      </c>
+      <c r="K98">
+        <v>34.473859828840126</v>
+      </c>
+      <c r="L98">
+        <v>34.247641210739616</v>
+      </c>
+      <c r="M98">
+        <v>31.554574059512014</v>
+      </c>
+      <c r="N98">
+        <v>2</v>
+      </c>
+      <c r="O98">
+        <v>2</v>
+      </c>
+      <c r="P98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D99" s="1">
+        <v>39153</v>
+      </c>
+      <c r="E99">
+        <v>7</v>
+      </c>
+      <c r="F99">
+        <v>3</v>
+      </c>
+      <c r="G99">
+        <v>7</v>
+      </c>
+      <c r="H99">
+        <v>1060</v>
+      </c>
+      <c r="I99">
+        <v>384</v>
+      </c>
+      <c r="J99">
+        <v>1316</v>
+      </c>
+      <c r="K99">
+        <v>37.54456136852275</v>
+      </c>
+      <c r="L99">
+        <v>47.013210083356363</v>
+      </c>
+      <c r="M99">
+        <v>30.969912471172275</v>
+      </c>
+      <c r="N99">
+        <v>2</v>
+      </c>
+      <c r="O99">
+        <v>2</v>
+      </c>
+      <c r="P99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D100" s="1">
+        <v>38987</v>
+      </c>
+      <c r="E100">
+        <v>7</v>
+      </c>
+      <c r="F100">
+        <v>3</v>
+      </c>
+      <c r="G100">
+        <v>7</v>
+      </c>
+      <c r="H100">
+        <v>1060</v>
+      </c>
+      <c r="I100">
+        <v>384</v>
+      </c>
+      <c r="J100">
+        <v>1421</v>
+      </c>
+      <c r="K100">
+        <v>44.438540238062288</v>
+      </c>
+      <c r="L100">
+        <v>41.068269607165888</v>
+      </c>
+      <c r="M100">
+        <v>46.523507618551953</v>
+      </c>
+      <c r="N100">
+        <v>2</v>
+      </c>
+      <c r="O100">
+        <v>2</v>
+      </c>
+      <c r="P100">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>